--- a/biology/Histoire de la zoologie et de la botanique/Gustave_Malcuit/Gustave_Malcuit.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustave_Malcuit/Gustave_Malcuit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Malcuit, né le 17 août 1882 à Calmoutier (Haute-Saône) et mort le 6 novembre 1960 à Marseille (Bouches-du-Rhône), est un botaniste français.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit sa scolarité primaire à l’école communale de Calmoutier, puis au cours complémentaire du chef-lieu de canton, Noroy-le-Bourg où il fut reçu au brevet élémentaire. Il entra à l'école normale d'instituteurs de Vesoul et il est nommé instituteur en 1905. Il entame, en plus de sa tâche, des études pour obtenir le degré de la licence d'enseignement, licence qu'il obtient en 1914.
 Au cours de la Première Guerre mondiale, il est affecté au service armé jusque 1915, au service auxiliaire jusqu'en 1916 puis en sursis d'appel en 1917.
-Après la guerre, il enseigne au collège de Boulogne-sur-Mer. Il publia en 1927 et en 1928 deux études sur la botanique de cette région[1].
+Après la guerre, il enseigne au collège de Boulogne-sur-Mer. Il publia en 1927 et en 1928 deux études sur la botanique de cette région.
 Puis, en 1928, il est nommé au lycée Malherbe de Caen, ensuite à Marseille au lycée Thiers, puis au lycée Saint-Charles, et enfin au lycée Périer, en 1932. Devenu professeur chevronné, il accède en 1940 à l'enseignement supérieur, en qualité de chargé de cours de la Faculté des Sciences de Marseille ; il y remplace même le professeur Pierre Choux pour les cours du certificat de Botanique générale pendant la mobilisation de ce dernier en 1939 et 1940.
-Il est admis à la Société botanique de France en 1926[2].
+Il est admis à la Société botanique de France en 1926.
 Il obtient son doctorat à l'Université de Lille en 1929 sur le sujet : Contributions à l'étude phytosociologique des Vosges méridionales saônoises, les associations végétales de la vallée de La Lanterne
-Il est des membres fondateurs, en 1930, de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier [1].
+Il est des membres fondateurs, en 1930, de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier .
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Végétation du vallon de Denacre près de Boulogne-sur-Mer, Librairie générale de l'enseignement, 1927, 17 p.
 Étude sur la végétation du cap Blanc-Nez (Pas-de-Calais) avec esquisse physiographique et géologique, avec René de Litardière &amp; A.-P. Dutertre, Laboratoire d'évolution des êtres organisés ; les Presses universitaires de France, 1928
-Contributions à l'étude phytosociologique des Vosges méridionales saônoises, les associations végétales de la vallée de La Lanterne, Soc. d'édit. du Nord, 1929, 211 p. [2]
+Contributions à l'étude phytosociologique des Vosges méridionales saônoises, les associations végétales de la vallée de La Lanterne, Soc. d'édit. du Nord, 1929, 211 p. 
 Contributions à l'étude phytosociologique de la Corse,
 vol.  : Le massif du Renoso, avec René de Litardière, Lechevalier, 1926, 143 p.
 vol.  : Les hêtraies de l'Incudine, avec René de Litardière, Soc. d'édition du Nord, 1929
